--- a/DbLayouts/L7-介接外部系統/DataInputRecord.xlsx
+++ b/DbLayouts/L7-介接外部系統/DataInputRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B5F6CC-BDF6-4AC7-86E4-832F352EE589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28DD5DC-EA95-4DC7-AC5E-54A4345C2D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -314,6 +314,26 @@
   <si>
     <t>搬移完成時，更新為搬移筆數
 搬移失敗時，不更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetTable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>對應資料表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>擺對應資料表名稱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小寫需完全符合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>擺NULL</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -963,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1154,7 +1174,9 @@
         <v>30</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="H10" s="30" t="s">
         <v>48</v>
       </c>
@@ -1165,58 +1187,56 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="19" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>3</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E11" s="22">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" s="19" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>4</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E12" s="22">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>61</v>
@@ -1225,94 +1245,94 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="24" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>5</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E13" s="22">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="30" t="s">
-        <v>65</v>
+      <c r="G13" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="24" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="24" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E14" s="22">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="30" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="24" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>61</v>
+        <v>40</v>
+      </c>
+      <c r="E15" s="22">
+        <v>14</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -1320,17 +1340,15 @@
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="22">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E16" s="22"/>
       <c r="F16" s="18" t="s">
         <v>21</v>
       </c>
@@ -1338,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16" s="25" t="s">
         <v>61</v>
@@ -1352,52 +1370,84 @@
         <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="E17" s="22">
+        <v>6</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>21</v>
+      </c>
       <c r="H17" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E19" s="22">
         <v>6</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="25" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I19" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J19" s="25" t="s">
         <v>61</v>
       </c>
     </row>
